--- a/components/mjd_sht3x/_doc/sht3x formulas.xlsx
+++ b/components/mjd_sht3x/_doc/sht3x formulas.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,10 +83,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -207,21 +214,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -236,15 +247,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -262,8 +273,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2457450" y="1733550"/>
-          <a:ext cx="4876800" cy="4000500"/>
+          <a:off x="2352674" y="571499"/>
+          <a:ext cx="5956663" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,122 +581,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1"/>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <f>C3*256 + C4</f>
         <v>24595</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="12">
         <f>C6*256 + C7</f>
         <v>32479</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15"/>
+    </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="13">
         <f xml:space="preserve"> - 45 + 175 * B10 / 65535</f>
         <v>20.676737621118491</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="13">
         <f>100 * B11 / 65535</f>
         <v>49.55977721828031</v>
       </c>
